--- a/docs/TL_modeling_summary_table.xlsx
+++ b/docs/TL_modeling_summary_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,12 +191,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,9 +254,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,20 +263,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,10 +303,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,20 +604,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="18" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="2" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -636,7 +630,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -651,246 +645,250 @@
       <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>201807</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <v>1.22</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>19.5</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>208</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="3">
         <v>201812</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5">
+      <c r="E3" s="14"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4">
         <v>95</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="3">
         <v>201904</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5">
+      <c r="E4" s="14"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4">
         <v>327</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>201808</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>0.76</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>17.7</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>265</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="3">
         <v>201812</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5">
+      <c r="E6" s="14"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4">
         <v>265</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="2:10" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="6">
         <v>201906</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10">
+      <c r="E7" s="15"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
         <v>241</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>202009</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <v>17.399999999999999</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="10">
         <v>125</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="10">
         <v>200</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:10" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="C9" s="15" t="s">
+    <row r="9" spans="2:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="21"/>
+      <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>201909</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>16.399999999999999</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <v>109</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>500</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>202201</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>2.13</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <v>10.9</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>390</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="14">
+      <c r="H10" s="24">
+        <v>160</v>
+      </c>
+      <c r="I10" s="10">
         <v>75.599999999999994</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="19">
         <v>39.5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="16" t="s">
+    <row r="11" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>202201</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>14.95</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>345</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>100</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:10" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-      <c r="C12" s="15" t="s">
+    <row r="12" spans="2:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="21"/>
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>202105</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <v>831</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="25">
+        <v>250</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="15" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/TL_modeling_summary_table.xlsx
+++ b/docs/TL_modeling_summary_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -241,12 +241,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -275,9 +284,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -293,33 +299,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -605,19 +647,19 @@
   <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="16" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="2" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -630,7 +672,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -645,116 +687,116 @@
       <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3">
         <v>201807</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="23">
         <v>1.22</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="29">
         <v>19.5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>208</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="14"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="3">
         <v>201812</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4">
+      <c r="E3" s="24"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="3">
         <v>95</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="17"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="3">
         <v>201904</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4">
+      <c r="E4" s="22"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="3">
         <v>327</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3">
         <v>201808</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="26">
         <v>0.76</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="31">
         <v>17.7</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>265</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="14"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3">
         <v>201812</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4">
+      <c r="E6" s="24"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="3">
         <v>265</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="14"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="6">
         <v>201906</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7">
+      <c r="E7" s="27"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="6">
         <v>241</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -763,54 +805,54 @@
       <c r="D8" s="9">
         <v>202009</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="9">
         <v>17.399999999999999</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>125</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>200</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="6">
         <v>201909</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6">
         <v>16.399999999999999</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>109</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>500</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -819,81 +861,85 @@
       <c r="D10" s="9">
         <v>202201</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="33">
         <v>2.13</v>
       </c>
       <c r="F10" s="9">
         <v>10.9</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>390</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="34">
         <v>160</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>75.599999999999994</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="35">
         <v>39.5</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3">
         <v>202201</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="3">
         <v>14.95</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>345</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>100</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="21"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6">
         <v>202105</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="25" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>831</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="36">
         <v>250</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="25" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>

--- a/docs/TL_modeling_summary_table.xlsx
+++ b/docs/TL_modeling_summary_table.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Network</t>
   </si>
   <si>
     <t>NPZ</t>
-  </si>
-  <si>
-    <t>Deployment start (YYYYMM)</t>
   </si>
   <si>
     <t>N vessels suitable for propagation analysis</t>
@@ -139,11 +137,31 @@
   <si>
     <t>11.5, 11.4</t>
   </si>
+  <si>
+    <t>Deployment start
+(mm/yyyy)</t>
+  </si>
+  <si>
+    <t>N vessels inside</t>
+  </si>
+  <si>
+    <t>N manuevers</t>
+  </si>
+  <si>
+    <t>% Inside</t>
+  </si>
+  <si>
+    <t>% Maneuvers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +199,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -263,104 +287,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,25 +714,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J12"/>
+  <dimension ref="B1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="7" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="2" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" s="2" customFormat="1" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,272 +739,454 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="K1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="34">
+        <v>43299</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1.22</v>
+      </c>
+      <c r="F2" s="23">
+        <v>19.5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>250</v>
+      </c>
+      <c r="H2" s="5">
+        <v>87.7</v>
+      </c>
+      <c r="I2" s="14">
+        <v>1.63</v>
+      </c>
+      <c r="J2" s="10">
+        <v>208</v>
+      </c>
+      <c r="K2" s="10">
+        <v>41</v>
+      </c>
+      <c r="L2" s="10">
+        <v>14</v>
+      </c>
+      <c r="M2" s="36">
+        <v>0.197115384615384</v>
+      </c>
+      <c r="N2" s="36">
+        <v>0.36585365853658502</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="33">
+        <v>43435</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="12">
+        <v>250</v>
+      </c>
+      <c r="H3" s="12">
+        <v>84.1</v>
+      </c>
+      <c r="I3" s="32">
+        <v>1.89</v>
+      </c>
+      <c r="J3" s="10">
+        <v>216</v>
+      </c>
+      <c r="K3" s="10">
+        <v>33</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="36">
+        <v>0.15277777777777701</v>
+      </c>
+      <c r="N3" s="36">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="33">
+        <v>43556</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="12">
+        <v>250</v>
+      </c>
+      <c r="H4" s="12">
+        <v>86.4</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1.73</v>
+      </c>
+      <c r="J4" s="10">
+        <v>326</v>
+      </c>
+      <c r="K4" s="10">
+        <v>57</v>
+      </c>
+      <c r="L4" s="10">
+        <v>31</v>
+      </c>
+      <c r="M4" s="36">
+        <v>0.17484662576687099</v>
+      </c>
+      <c r="N4" s="36">
+        <v>0.57894736842105199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="33">
+        <v>43313</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="F5" s="26">
+        <v>17.7</v>
+      </c>
+      <c r="G5" s="12">
+        <v>200</v>
+      </c>
+      <c r="H5" s="12">
+        <v>91.3</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="J5" s="10">
+        <v>112</v>
+      </c>
+      <c r="K5" s="10">
+        <v>41</v>
+      </c>
+      <c r="L5" s="10">
+        <v>8</v>
+      </c>
+      <c r="M5" s="36">
+        <v>0.36607142857142799</v>
+      </c>
+      <c r="N5" s="36">
+        <v>0.292682926829268</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="33">
+        <v>43435</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="12">
+        <v>200</v>
+      </c>
+      <c r="H6" s="12">
+        <v>83.4</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1.84</v>
+      </c>
+      <c r="J6" s="10">
+        <v>265</v>
+      </c>
+      <c r="K6" s="10">
+        <v>42</v>
+      </c>
+      <c r="L6" s="10">
+        <v>29</v>
+      </c>
+      <c r="M6" s="36">
+        <v>0.15849056603773501</v>
+      </c>
+      <c r="N6" s="36">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="35">
+        <v>43617</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="13">
+        <v>200</v>
+      </c>
+      <c r="H7" s="13">
+        <v>92.7</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1.32</v>
+      </c>
+      <c r="J7" s="11">
+        <v>241</v>
+      </c>
+      <c r="K7" s="11">
+        <v>75</v>
+      </c>
+      <c r="L7" s="11">
+        <v>65</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.31120331950207403</v>
+      </c>
+      <c r="N7" s="37">
+        <v>0.90666666666666595</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="34">
+        <v>44075</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>200</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J8" s="14">
+        <v>125</v>
+      </c>
+      <c r="K8" s="14">
+        <v>7</v>
+      </c>
+      <c r="L8" s="14">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M8" s="38">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N8" s="38">
+        <v>0.42859999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="29"/>
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="35">
+        <v>43709</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="13">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G9" s="13">
+        <v>500</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="11">
+        <v>109</v>
+      </c>
+      <c r="K9" s="11">
+        <v>4</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2</v>
+      </c>
+      <c r="M9" s="37">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="N9" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="34">
+        <v>44562</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2.13</v>
+      </c>
+      <c r="F10" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="G10" s="15">
+        <v>160</v>
+      </c>
+      <c r="H10" s="5">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="I10" s="16">
+        <v>39.5</v>
+      </c>
+      <c r="J10" s="16">
+        <v>390</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0</v>
+      </c>
+      <c r="M10" s="39">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="N10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="28"/>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="33">
+        <v>44562</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>201807</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1.22</v>
-      </c>
-      <c r="F2" s="29">
-        <v>19.5</v>
-      </c>
-      <c r="G2" s="3">
-        <v>208</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="3">
-        <v>201812</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="3">
-        <v>95</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="3">
-        <v>201904</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="3">
-        <v>327</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3">
-        <v>201808</v>
-      </c>
-      <c r="E5" s="26">
-        <v>0.76</v>
-      </c>
-      <c r="F5" s="31">
-        <v>17.7</v>
-      </c>
-      <c r="G5" s="3">
-        <v>265</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="3">
-        <v>201812</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="3">
-        <v>265</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="2:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="6">
-        <v>201906</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="6">
-        <v>241</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="9">
-        <v>202009</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="9">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="G8" s="9">
-        <v>125</v>
-      </c>
-      <c r="H8" s="9">
-        <v>200</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18"/>
-      <c r="C9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6">
-        <v>201909</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G9" s="6">
-        <v>109</v>
-      </c>
-      <c r="H9" s="6">
-        <v>500</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="F11" s="12">
+        <v>14.95</v>
+      </c>
+      <c r="G11" s="12">
+        <v>100</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="10">
+        <v>345</v>
+      </c>
+      <c r="K11" s="10">
         <v>21</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="9">
-        <v>202201</v>
-      </c>
-      <c r="E10" s="33">
-        <v>2.13</v>
-      </c>
-      <c r="F10" s="9">
-        <v>10.9</v>
-      </c>
-      <c r="G10" s="9">
-        <v>390</v>
-      </c>
-      <c r="H10" s="34">
-        <v>160</v>
-      </c>
-      <c r="I10" s="9">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="J10" s="35">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="11" t="s">
+      <c r="L11" s="10">
+        <v>3</v>
+      </c>
+      <c r="M11" s="36">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="N11" s="36">
+        <v>0.1429</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29"/>
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
-        <v>202201</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3">
-        <v>14.95</v>
-      </c>
-      <c r="G11" s="3">
-        <v>345</v>
-      </c>
-      <c r="H11" s="3">
-        <v>100</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="21" t="s">
+      <c r="D12" s="35">
+        <v>44317</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="18"/>
-      <c r="C12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6">
-        <v>202105</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="F12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="17">
+        <v>250</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="6">
+      <c r="I12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="11">
         <v>831</v>
       </c>
-      <c r="H12" s="36">
-        <v>250</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>31</v>
+      <c r="K12" s="11">
+        <v>61</v>
+      </c>
+      <c r="L12" s="11">
+        <v>52</v>
+      </c>
+      <c r="M12" s="37">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="N12" s="37">
+        <v>0.85250000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F2:F4"/>
@@ -943,8 +1194,492 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="40"/>
+    <col min="2" max="2" width="20.21875" style="40" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="44">
+        <v>43299</v>
+      </c>
+      <c r="D4" s="44">
+        <v>43435</v>
+      </c>
+      <c r="E4" s="44">
+        <v>43556</v>
+      </c>
+      <c r="F4" s="44">
+        <v>43313</v>
+      </c>
+      <c r="G4" s="44">
+        <v>43435</v>
+      </c>
+      <c r="H4" s="44">
+        <v>43617</v>
+      </c>
+      <c r="I4" s="44">
+        <v>44075</v>
+      </c>
+      <c r="J4" s="44">
+        <v>43709</v>
+      </c>
+      <c r="K4" s="44">
+        <v>44562</v>
+      </c>
+      <c r="L4" s="44">
+        <v>44562</v>
+      </c>
+      <c r="M4" s="44">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="46">
+        <v>1.22</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46">
+        <v>0.76</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="48">
+        <v>2.13</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="49">
+        <v>19.5</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49">
+        <v>17.7</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="47">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J6" s="47">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K6" s="47">
+        <v>10.9</v>
+      </c>
+      <c r="L6" s="47">
+        <v>14.95</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="47">
+        <v>250</v>
+      </c>
+      <c r="D7" s="47">
+        <v>250</v>
+      </c>
+      <c r="E7" s="47">
+        <v>250</v>
+      </c>
+      <c r="F7" s="47">
+        <v>200</v>
+      </c>
+      <c r="G7" s="47">
+        <v>200</v>
+      </c>
+      <c r="H7" s="47">
+        <v>200</v>
+      </c>
+      <c r="I7" s="47">
+        <v>200</v>
+      </c>
+      <c r="J7" s="47">
+        <v>500</v>
+      </c>
+      <c r="K7" s="47">
+        <v>160</v>
+      </c>
+      <c r="L7" s="47">
+        <v>100</v>
+      </c>
+      <c r="M7" s="47">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="47">
+        <v>87.7</v>
+      </c>
+      <c r="D8" s="47">
+        <v>84.1</v>
+      </c>
+      <c r="E8" s="47">
+        <v>86.4</v>
+      </c>
+      <c r="F8" s="47">
+        <v>91.3</v>
+      </c>
+      <c r="G8" s="47">
+        <v>83.4</v>
+      </c>
+      <c r="H8" s="47">
+        <v>92.7</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="47">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="48">
+        <v>1.63</v>
+      </c>
+      <c r="D9" s="50">
+        <v>1.89</v>
+      </c>
+      <c r="E9" s="48">
+        <v>1.73</v>
+      </c>
+      <c r="F9" s="48">
+        <v>1.39</v>
+      </c>
+      <c r="G9" s="48">
+        <v>1.84</v>
+      </c>
+      <c r="H9" s="48">
+        <v>1.32</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="50">
+        <v>39.5</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="48">
+        <v>208</v>
+      </c>
+      <c r="D10" s="48">
+        <v>216</v>
+      </c>
+      <c r="E10" s="48">
+        <v>326</v>
+      </c>
+      <c r="F10" s="48">
+        <v>112</v>
+      </c>
+      <c r="G10" s="48">
+        <v>265</v>
+      </c>
+      <c r="H10" s="48">
+        <v>241</v>
+      </c>
+      <c r="I10" s="48">
+        <v>125</v>
+      </c>
+      <c r="J10" s="48">
+        <v>109</v>
+      </c>
+      <c r="K10" s="50">
+        <v>390</v>
+      </c>
+      <c r="L10" s="48">
+        <v>345</v>
+      </c>
+      <c r="M10" s="48">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="48">
+        <v>41</v>
+      </c>
+      <c r="D11" s="48">
+        <v>33</v>
+      </c>
+      <c r="E11" s="48">
+        <v>57</v>
+      </c>
+      <c r="F11" s="48">
+        <v>41</v>
+      </c>
+      <c r="G11" s="48">
+        <v>42</v>
+      </c>
+      <c r="H11" s="48">
+        <v>75</v>
+      </c>
+      <c r="I11" s="48">
+        <v>7</v>
+      </c>
+      <c r="J11" s="48">
+        <v>4</v>
+      </c>
+      <c r="K11" s="50">
+        <v>1</v>
+      </c>
+      <c r="L11" s="48">
+        <v>21</v>
+      </c>
+      <c r="M11" s="48">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="48">
+        <v>14</v>
+      </c>
+      <c r="D12" s="48">
+        <v>0</v>
+      </c>
+      <c r="E12" s="48">
+        <v>31</v>
+      </c>
+      <c r="F12" s="48">
+        <v>8</v>
+      </c>
+      <c r="G12" s="48">
+        <v>29</v>
+      </c>
+      <c r="H12" s="48">
+        <v>65</v>
+      </c>
+      <c r="I12" s="48">
+        <v>3</v>
+      </c>
+      <c r="J12" s="48">
+        <v>2</v>
+      </c>
+      <c r="K12" s="50">
+        <v>0</v>
+      </c>
+      <c r="L12" s="48">
+        <v>3</v>
+      </c>
+      <c r="M12" s="48">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="51">
+        <v>0.197115384615384</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0.15277777777777701</v>
+      </c>
+      <c r="E13" s="51">
+        <v>0.17484662576687099</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0.36607142857142799</v>
+      </c>
+      <c r="G13" s="51">
+        <v>0.15849056603773501</v>
+      </c>
+      <c r="H13" s="51">
+        <v>0.31120331950207403</v>
+      </c>
+      <c r="I13" s="51">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J13" s="51">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="K13" s="52">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="L13" s="51">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="M13" s="51">
+        <v>7.3400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="51">
+        <v>0.36585365853658502</v>
+      </c>
+      <c r="D14" s="51">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="E14" s="51">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0.292682926829268</v>
+      </c>
+      <c r="G14" s="51">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="H14" s="51">
+        <v>0.90666666666666595</v>
+      </c>
+      <c r="I14" s="51">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="J14" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="52">
+        <v>0</v>
+      </c>
+      <c r="L14" s="51">
+        <v>0.1429</v>
+      </c>
+      <c r="M14" s="51">
+        <v>0.85250000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/TL_modeling_summary_table.xlsx
+++ b/docs/TL_modeling_summary_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>Network</t>
   </si>
@@ -159,8 +159,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="mm/yyyy"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -279,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,70 +330,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -403,34 +373,91 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N12"/>
+  <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +758,7 @@
     <col min="9" max="9" width="10.77734375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="2" customFormat="1" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" s="2" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,36 +783,26 @@
       <c r="I1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="24">
         <v>43299</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="43">
         <v>1.22</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="48">
         <v>19.5</v>
       </c>
       <c r="G2" s="5">
@@ -797,63 +814,43 @@
       <c r="I2" s="14">
         <v>1.63</v>
       </c>
-      <c r="J2" s="10">
-        <v>208</v>
-      </c>
-      <c r="K2" s="10">
-        <v>41</v>
-      </c>
-      <c r="L2" s="10">
-        <v>14</v>
-      </c>
-      <c r="M2" s="36">
-        <v>0.197115384615384</v>
-      </c>
-      <c r="N2" s="36">
-        <v>0.36585365853658502</v>
-      </c>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
     </row>
     <row r="3" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="33">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="23">
         <v>43435</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="24"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="12">
         <v>250</v>
       </c>
       <c r="H3" s="12">
         <v>84.1</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="22">
         <v>1.89</v>
       </c>
-      <c r="J3" s="10">
-        <v>216</v>
-      </c>
-      <c r="K3" s="10">
-        <v>33</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0</v>
-      </c>
-      <c r="M3" s="36">
-        <v>0.15277777777777701</v>
-      </c>
-      <c r="N3" s="36">
-        <v>0.66666666666666596</v>
-      </c>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="33">
+      <c r="B4" s="42"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="23">
         <v>43556</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="12">
         <v>250</v>
       </c>
@@ -863,34 +860,24 @@
       <c r="I4" s="10">
         <v>1.73</v>
       </c>
-      <c r="J4" s="10">
-        <v>326</v>
-      </c>
-      <c r="K4" s="10">
-        <v>57</v>
-      </c>
-      <c r="L4" s="10">
-        <v>31</v>
-      </c>
-      <c r="M4" s="36">
-        <v>0.17484662576687099</v>
-      </c>
-      <c r="N4" s="36">
-        <v>0.57894736842105199</v>
-      </c>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="23">
         <v>43313</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="46">
         <v>0.76</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="51">
         <v>17.7</v>
       </c>
       <c r="G5" s="12">
@@ -902,30 +889,20 @@
       <c r="I5" s="10">
         <v>1.39</v>
       </c>
-      <c r="J5" s="10">
-        <v>112</v>
-      </c>
-      <c r="K5" s="10">
-        <v>41</v>
-      </c>
-      <c r="L5" s="10">
-        <v>8</v>
-      </c>
-      <c r="M5" s="36">
-        <v>0.36607142857142799</v>
-      </c>
-      <c r="N5" s="36">
-        <v>0.292682926829268</v>
-      </c>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
     </row>
     <row r="6" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="33">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="23">
         <v>43435</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="24"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="12">
         <v>200</v>
       </c>
@@ -935,30 +912,20 @@
       <c r="I6" s="10">
         <v>1.84</v>
       </c>
-      <c r="J6" s="10">
-        <v>265</v>
-      </c>
-      <c r="K6" s="10">
-        <v>42</v>
-      </c>
-      <c r="L6" s="10">
-        <v>29</v>
-      </c>
-      <c r="M6" s="36">
-        <v>0.15849056603773501</v>
-      </c>
-      <c r="N6" s="36">
-        <v>0.71428571428571397</v>
-      </c>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="35">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="25">
         <v>43617</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="27"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="13">
         <v>200</v>
       </c>
@@ -968,30 +935,20 @@
       <c r="I7" s="11">
         <v>1.32</v>
       </c>
-      <c r="J7" s="11">
-        <v>241</v>
-      </c>
-      <c r="K7" s="11">
-        <v>75</v>
-      </c>
-      <c r="L7" s="11">
-        <v>65</v>
-      </c>
-      <c r="M7" s="37">
-        <v>0.31120331950207403</v>
-      </c>
-      <c r="N7" s="37">
-        <v>0.90666666666666595</v>
-      </c>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
     </row>
     <row r="8" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="24">
         <v>44075</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1009,28 +966,18 @@
       <c r="I8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="14">
-        <v>125</v>
-      </c>
-      <c r="K8" s="14">
-        <v>7</v>
-      </c>
-      <c r="L8" s="14">
-        <v>3</v>
-      </c>
-      <c r="M8" s="38">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="N8" s="38">
-        <v>0.42859999999999998</v>
-      </c>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
     </row>
     <row r="9" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="29"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="25">
         <v>43709</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -1048,30 +995,20 @@
       <c r="I9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="11">
-        <v>109</v>
-      </c>
-      <c r="K9" s="11">
-        <v>4</v>
-      </c>
-      <c r="L9" s="11">
-        <v>2</v>
-      </c>
-      <c r="M9" s="37">
-        <v>3.6700000000000003E-2</v>
-      </c>
-      <c r="N9" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
     </row>
     <row r="10" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="24">
         <v>44562</v>
       </c>
       <c r="E10" s="14">
@@ -1089,28 +1026,18 @@
       <c r="I10" s="16">
         <v>39.5</v>
       </c>
-      <c r="J10" s="16">
-        <v>390</v>
-      </c>
-      <c r="K10" s="16">
-        <v>1</v>
-      </c>
-      <c r="L10" s="16">
-        <v>0</v>
-      </c>
-      <c r="M10" s="39">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="N10" s="39">
-        <v>0</v>
-      </c>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="23">
         <v>44562</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1128,28 +1055,18 @@
       <c r="I11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="10">
-        <v>345</v>
-      </c>
-      <c r="K11" s="10">
-        <v>21</v>
-      </c>
-      <c r="L11" s="10">
-        <v>3</v>
-      </c>
-      <c r="M11" s="36">
-        <v>6.0900000000000003E-2</v>
-      </c>
-      <c r="N11" s="36">
-        <v>0.1429</v>
-      </c>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="29"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="25">
         <v>44317</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -1167,24 +1084,307 @@
       <c r="I12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+    </row>
+    <row r="22" spans="2:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="24">
+        <v>43299</v>
+      </c>
+      <c r="E23" s="18">
+        <v>208</v>
+      </c>
+      <c r="F23" s="18">
+        <v>41</v>
+      </c>
+      <c r="G23" s="18">
+        <v>14</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0.197115384615384</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0.36585365853658502</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="23">
+        <v>43435</v>
+      </c>
+      <c r="E24" s="18">
+        <v>216</v>
+      </c>
+      <c r="F24" s="18">
+        <v>33</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0.15277777777777701</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="42"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="23">
+        <v>43556</v>
+      </c>
+      <c r="E25" s="18">
+        <v>326</v>
+      </c>
+      <c r="F25" s="18">
+        <v>57</v>
+      </c>
+      <c r="G25" s="18">
+        <v>31</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0.17484662576687099</v>
+      </c>
+      <c r="I25" s="26">
+        <v>0.57894736842105199</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="23">
+        <v>43313</v>
+      </c>
+      <c r="E26" s="18">
+        <v>112</v>
+      </c>
+      <c r="F26" s="18">
+        <v>41</v>
+      </c>
+      <c r="G26" s="18">
+        <v>8</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0.36607142857142799</v>
+      </c>
+      <c r="I26" s="26">
+        <v>0.292682926829268</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="23">
+        <v>43435</v>
+      </c>
+      <c r="E27" s="18">
+        <v>265</v>
+      </c>
+      <c r="F27" s="18">
+        <v>42</v>
+      </c>
+      <c r="G27" s="18">
+        <v>29</v>
+      </c>
+      <c r="H27" s="26">
+        <v>0.15849056603773501</v>
+      </c>
+      <c r="I27" s="26">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="25">
+        <v>43617</v>
+      </c>
+      <c r="E28" s="19">
+        <v>241</v>
+      </c>
+      <c r="F28" s="19">
+        <v>75</v>
+      </c>
+      <c r="G28" s="19">
+        <v>65</v>
+      </c>
+      <c r="H28" s="27">
+        <v>0.31120331950207403</v>
+      </c>
+      <c r="I28" s="27">
+        <v>0.90666666666666595</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="24">
+        <v>44075</v>
+      </c>
+      <c r="E29" s="14">
+        <v>125</v>
+      </c>
+      <c r="F29" s="14">
+        <v>7</v>
+      </c>
+      <c r="G29" s="14">
+        <v>3</v>
+      </c>
+      <c r="H29" s="28">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I29" s="28">
+        <v>0.42859999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="41"/>
+      <c r="C30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="25">
+        <v>43709</v>
+      </c>
+      <c r="E30" s="19">
+        <v>109</v>
+      </c>
+      <c r="F30" s="19">
+        <v>4</v>
+      </c>
+      <c r="G30" s="19">
+        <v>2</v>
+      </c>
+      <c r="H30" s="27">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="I30" s="27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="24">
+        <v>44562</v>
+      </c>
+      <c r="E31" s="16">
+        <v>390</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="29">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="I31" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="42"/>
+      <c r="C32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="23">
+        <v>44562</v>
+      </c>
+      <c r="E32" s="18">
+        <v>345</v>
+      </c>
+      <c r="F32" s="18">
+        <v>21</v>
+      </c>
+      <c r="G32" s="18">
+        <v>3</v>
+      </c>
+      <c r="H32" s="26">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="I32" s="26">
+        <v>0.1429</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="41"/>
+      <c r="C33" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="25">
+        <v>44317</v>
+      </c>
+      <c r="E33" s="19">
         <v>831</v>
       </c>
-      <c r="K12" s="11">
+      <c r="F33" s="19">
         <v>61</v>
       </c>
-      <c r="L12" s="11">
+      <c r="G33" s="19">
         <v>52</v>
       </c>
-      <c r="M12" s="37">
+      <c r="H33" s="27">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="N12" s="37">
+      <c r="I33" s="27">
         <v>0.85250000000000004</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="E2:E4"/>
@@ -1205,467 +1405,467 @@
   <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="40"/>
-    <col min="2" max="2" width="20.21875" style="40" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="40"/>
+    <col min="1" max="1" width="8.88671875" style="30"/>
+    <col min="2" max="2" width="20.21875" style="30" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="33">
         <v>43299</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="33">
         <v>43435</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="33">
         <v>43556</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="33">
         <v>43313</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="33">
         <v>43435</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="33">
         <v>43617</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="33">
         <v>44075</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="33">
         <v>43709</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="33">
         <v>44562</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="33">
         <v>44562</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="33">
         <v>44317</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="56">
         <v>1.22</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56">
         <v>0.76</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="36">
         <v>2.13</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="54">
         <v>19.5</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54">
         <v>17.7</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="47">
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="35">
         <v>17.399999999999999</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="35">
         <v>16.399999999999999</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="35">
         <v>10.9</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="35">
         <v>14.95</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="35">
         <v>250</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="35">
         <v>250</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="35">
         <v>250</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="35">
         <v>200</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="35">
         <v>200</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="35">
         <v>200</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="35">
         <v>200</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="35">
         <v>500</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="35">
         <v>160</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="35">
         <v>100</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="35">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="35">
         <v>87.7</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="35">
         <v>84.1</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="35">
         <v>86.4</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="35">
         <v>91.3</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="35">
         <v>83.4</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="35">
         <v>92.7</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="35">
         <v>75.599999999999994</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="36">
         <v>1.63</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="37">
         <v>1.89</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="36">
         <v>1.73</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="36">
         <v>1.39</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="36">
         <v>1.84</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="36">
         <v>1.32</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="37">
         <v>39.5</v>
       </c>
-      <c r="L9" s="48" t="s">
+      <c r="L9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="48" t="s">
+      <c r="M9" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="36">
         <v>208</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="36">
         <v>216</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="36">
         <v>326</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="36">
         <v>112</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="36">
         <v>265</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="36">
         <v>241</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="36">
         <v>125</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="36">
         <v>109</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="37">
         <v>390</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="36">
         <v>345</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="36">
         <v>831</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="36">
         <v>41</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="36">
         <v>33</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="36">
         <v>57</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="36">
         <v>41</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="36">
         <v>42</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="36">
         <v>75</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="36">
         <v>7</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="36">
         <v>4</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="37">
         <v>1</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="36">
         <v>21</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="36">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="36">
         <v>14</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="36">
         <v>31</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="36">
         <v>8</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="36">
         <v>29</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="36">
         <v>65</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="36">
         <v>3</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="36">
         <v>2</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="37">
         <v>0</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="36">
         <v>3</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="36">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="38">
         <v>0.197115384615384</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="38">
         <v>0.15277777777777701</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="38">
         <v>0.17484662576687099</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="38">
         <v>0.36607142857142799</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="38">
         <v>0.15849056603773501</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="38">
         <v>0.31120331950207403</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="38">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="38">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="39">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="38">
         <v>6.0900000000000003E-2</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="38">
         <v>7.3400000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="38">
         <v>0.36585365853658502</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="38">
         <v>0.66666666666666596</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="38">
         <v>0.57894736842105199</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="38">
         <v>0.292682926829268</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="38">
         <v>0.71428571428571397</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="38">
         <v>0.90666666666666595</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="38">
         <v>0.42859999999999998</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="38">
         <v>0.5</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="39">
         <v>0</v>
       </c>
-      <c r="L14" s="51">
+      <c r="L14" s="38">
         <v>0.1429</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="38">
         <v>0.85250000000000004</v>
       </c>
     </row>

--- a/docs/TL_modeling_summary_table.xlsx
+++ b/docs/TL_modeling_summary_table.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CA2079-FBD0-4F0B-92C2-E30FF1075916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>Network</t>
   </si>
@@ -153,11 +166,14 @@
   <si>
     <t>% Maneuvers</t>
   </si>
+  <si>
+    <t>N inside / nominal detection area</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -279,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -394,57 +410,6 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -459,6 +424,60 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,25 +759,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="2" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" s="2" customFormat="1" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,26 +802,26 @@
       <c r="I1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-    </row>
-    <row r="2" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+    </row>
+    <row r="2" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="24">
         <v>43299</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="49">
         <v>1.22</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="54">
         <v>19.5</v>
       </c>
       <c r="G2" s="5">
@@ -814,20 +833,20 @@
       <c r="I2" s="14">
         <v>1.63</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-    </row>
-    <row r="3" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+    </row>
+    <row r="3" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="23">
         <v>43435</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="12">
         <v>250</v>
       </c>
@@ -837,20 +856,20 @@
       <c r="I3" s="22">
         <v>1.89</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-    </row>
-    <row r="4" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42"/>
-      <c r="C4" s="53"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+    </row>
+    <row r="4" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="46"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="23">
         <v>43556</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="12">
         <v>250</v>
       </c>
@@ -860,24 +879,24 @@
       <c r="I4" s="10">
         <v>1.73</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-    </row>
-    <row r="5" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42" t="s">
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+    </row>
+    <row r="5" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="23">
         <v>43313</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="52">
         <v>0.76</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="57">
         <v>17.7</v>
       </c>
       <c r="G5" s="12">
@@ -889,20 +908,20 @@
       <c r="I5" s="10">
         <v>1.39</v>
       </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-    </row>
-    <row r="6" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+    </row>
+    <row r="6" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="23">
         <v>43435</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="12">
         <v>200</v>
       </c>
@@ -912,20 +931,20 @@
       <c r="I6" s="10">
         <v>1.84</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-    </row>
-    <row r="7" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+    </row>
+    <row r="7" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="25">
         <v>43617</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="13">
         <v>200</v>
       </c>
@@ -935,14 +954,14 @@
       <c r="I7" s="11">
         <v>1.32</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-    </row>
-    <row r="8" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40" t="s">
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -966,14 +985,14 @@
       <c r="I8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-    </row>
-    <row r="9" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+    </row>
+    <row r="9" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="47"/>
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
@@ -995,14 +1014,14 @@
       <c r="I9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-    </row>
-    <row r="10" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+    </row>
+    <row r="10" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1026,14 +1045,14 @@
       <c r="I10" s="16">
         <v>39.5</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-    </row>
-    <row r="11" spans="2:14" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+    </row>
+    <row r="11" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="46"/>
       <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1055,14 +1074,14 @@
       <c r="I11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-    </row>
-    <row r="12" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+    </row>
+    <row r="12" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="47"/>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
@@ -1084,13 +1103,13 @@
       <c r="I12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-    </row>
-    <row r="22" spans="2:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+    </row>
+    <row r="22" spans="2:11" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,12 +1134,15 @@
       <c r="I22" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="40" t="s">
+      <c r="K22" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="24">
@@ -1141,10 +1163,14 @@
       <c r="I23" s="26">
         <v>0.36585365853658502</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="K23">
+        <f>F23/(PI()*(I2^2))</f>
+        <v>4.9120047173530876</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="23">
         <v>43435</v>
       </c>
@@ -1163,10 +1189,14 @@
       <c r="I24" s="26">
         <v>0.66666666666666596</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="42"/>
-      <c r="C25" s="53"/>
+      <c r="K24">
+        <f t="shared" ref="K24:L33" si="0">F24/(PI()*(I3^2))</f>
+        <v>2.9406305098023835</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="46"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="23">
         <v>43556</v>
       </c>
@@ -1185,10 +1215,14 @@
       <c r="I25" s="26">
         <v>0.57894736842105199</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42" t="s">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>6.0622351272932828</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="23">
@@ -1209,10 +1243,14 @@
       <c r="I26" s="26">
         <v>0.292682926829268</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>6.7546738437634808</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="23">
         <v>43435</v>
       </c>
@@ -1231,10 +1269,14 @@
       <c r="I27" s="26">
         <v>0.71428571428571397</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>3.9487875767129039</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="25">
         <v>43617</v>
       </c>
@@ -1253,9 +1295,13 @@
       <c r="I28" s="27">
         <v>0.90666666666666595</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="40" t="s">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>13.70135529372377</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -1279,9 +1325,13 @@
       <c r="I29" s="28">
         <v>0.42859999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="41"/>
+      <c r="K29">
+        <f>F29/(PI()*(25.2^2))</f>
+        <v>3.5087068582869345E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="47"/>
       <c r="C30" s="20" t="s">
         <v>8</v>
       </c>
@@ -1303,9 +1353,13 @@
       <c r="I30" s="27">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="40" t="s">
+      <c r="K30">
+        <f>F30/(PI()*(16.8^2))</f>
+        <v>4.5111945320832018E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B31" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1329,9 +1383,13 @@
       <c r="I31" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="42"/>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>2.0401210458823309E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B32" s="46"/>
       <c r="C32" s="21" t="s">
         <v>11</v>
       </c>
@@ -1353,9 +1411,13 @@
       <c r="I32" s="26">
         <v>0.1429</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="41"/>
+      <c r="K32">
+        <f>F32/(PI()*(21.2^2))</f>
+        <v>1.4872969940057859E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="47"/>
       <c r="C33" s="20" t="s">
         <v>12</v>
       </c>
@@ -1377,14 +1439,13 @@
       <c r="I33" s="27">
         <v>0.85250000000000004</v>
       </c>
+      <c r="K33">
+        <f>F33/(PI()*(11.5^2))</f>
+        <v>0.14681968285225885</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="E2:E4"/>
@@ -1394,63 +1455,116 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
   </mergeCells>
+  <conditionalFormatting sqref="K23:K33">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F33">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="30"/>
-    <col min="2" max="2" width="20.21875" style="30" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="30"/>
+    <col min="1" max="1" width="8.90625" style="30"/>
+    <col min="2" max="2" width="20.1796875" style="30" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="32" t="s">
         <v>7</v>
       </c>
@@ -1467,7 +1581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="28" x14ac:dyDescent="0.35">
       <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
@@ -1505,20 +1619,20 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="28" x14ac:dyDescent="0.35">
       <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="61">
         <v>1.22</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61">
         <v>0.76</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="35" t="s">
         <v>18</v>
       </c>
@@ -1535,20 +1649,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="28" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="59">
         <v>19.5</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54">
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59">
         <v>17.7</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="35">
         <v>17.399999999999999</v>
       </c>
@@ -1565,7 +1679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="28" x14ac:dyDescent="0.35">
       <c r="B7" s="31" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +1717,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16" x14ac:dyDescent="0.35">
       <c r="B8" s="31" t="s">
         <v>23</v>
       </c>
@@ -1641,7 +1755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="28" x14ac:dyDescent="0.35">
       <c r="B9" s="34" t="s">
         <v>22</v>
       </c>
@@ -1679,7 +1793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="28" x14ac:dyDescent="0.35">
       <c r="B10" s="34" t="s">
         <v>2</v>
       </c>
@@ -1717,7 +1831,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="34" t="s">
         <v>32</v>
       </c>
@@ -1755,7 +1869,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="34" t="s">
         <v>33</v>
       </c>
@@ -1793,7 +1907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="34" t="s">
         <v>34</v>
       </c>
@@ -1831,7 +1945,7 @@
         <v>7.3400000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="34" t="s">
         <v>35</v>
       </c>

--- a/docs/TL_modeling_summary_table.xlsx
+++ b/docs/TL_modeling_summary_table.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CA2079-FBD0-4F0B-92C2-E30FF1075916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A19228-BB68-4425-92A7-E72EAF94CAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Network</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>N inside / nominal detection area</t>
+  </si>
+  <si>
+    <t>NPZ boundary / Detection distance</t>
   </si>
 </sst>
 </file>
@@ -425,59 +428,59 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -760,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N33"/>
+  <dimension ref="B1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,7 +780,7 @@
     <col min="9" max="9" width="10.81640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="2" customFormat="1" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" s="2" customFormat="1" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,21 +810,22 @@
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
       <c r="N1" s="40"/>
-    </row>
-    <row r="2" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="45" t="s">
+      <c r="O1" s="40"/>
+    </row>
+    <row r="2" spans="2:15" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="24">
         <v>43299</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="50">
         <v>1.22</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="55">
         <v>19.5</v>
       </c>
       <c r="G2" s="5">
@@ -836,17 +840,18 @@
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
       <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="42"/>
-    </row>
-    <row r="3" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="O2" s="42"/>
+    </row>
+    <row r="3" spans="2:15" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="23">
         <v>43435</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="55"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="12">
         <v>250</v>
       </c>
@@ -859,17 +864,18 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
       <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="46"/>
-      <c r="C4" s="48"/>
+      <c r="O3" s="42"/>
+    </row>
+    <row r="4" spans="2:15" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="23">
         <v>43556</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="56"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="12">
         <v>250</v>
       </c>
@@ -882,21 +888,22 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="42"/>
-    </row>
-    <row r="5" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="46"/>
-      <c r="C5" s="46" t="s">
+      <c r="O4" s="42"/>
+    </row>
+    <row r="5" spans="2:15" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="23">
         <v>43313</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="53">
         <v>0.76</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="58">
         <v>17.7</v>
       </c>
       <c r="G5" s="12">
@@ -911,17 +918,18 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="42"/>
-    </row>
-    <row r="6" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
+      <c r="O5" s="42"/>
+    </row>
+    <row r="6" spans="2:15" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="23">
         <v>43435</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="55"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="12">
         <v>200</v>
       </c>
@@ -934,17 +942,18 @@
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="42"/>
-    </row>
-    <row r="7" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="O6" s="42"/>
+    </row>
+    <row r="7" spans="2:15" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="25">
         <v>43617</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="13">
         <v>200</v>
       </c>
@@ -957,11 +966,12 @@
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="42"/>
-    </row>
-    <row r="8" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="45" t="s">
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8" spans="2:15" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="46" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -988,11 +998,12 @@
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
-      <c r="M8" s="42"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="42"/>
-    </row>
-    <row r="9" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="47"/>
+      <c r="O8" s="42"/>
+    </row>
+    <row r="9" spans="2:15" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="48"/>
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1017,11 +1028,12 @@
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="42"/>
-    </row>
-    <row r="10" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="45" t="s">
+      <c r="O9" s="42"/>
+    </row>
+    <row r="10" spans="2:15" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1048,11 +1060,12 @@
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="44"/>
-    </row>
-    <row r="11" spans="2:14" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="46"/>
+      <c r="O10" s="44"/>
+    </row>
+    <row r="11" spans="2:15" s="3" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="47"/>
       <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1077,11 +1090,12 @@
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="M11" s="41"/>
       <c r="N11" s="42"/>
-    </row>
-    <row r="12" spans="2:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="47"/>
+      <c r="O11" s="42"/>
+    </row>
+    <row r="12" spans="2:15" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="48"/>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
@@ -1106,10 +1120,11 @@
       <c r="J12" s="41"/>
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
-      <c r="M12" s="42"/>
+      <c r="M12" s="41"/>
       <c r="N12" s="42"/>
-    </row>
-    <row r="22" spans="2:11" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O12" s="42"/>
+    </row>
+    <row r="22" spans="2:15" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,15 +1149,19 @@
       <c r="I22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="45" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="45" t="s">
+      <c r="L22" s="45"/>
+      <c r="M22" s="45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="24">
@@ -1167,10 +1186,18 @@
         <f>F23/(PI()*(I2^2))</f>
         <v>4.9120047173530876</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
+      <c r="M23">
+        <f>E2/(PI()*(I2^2))</f>
+        <v>0.14616209158953092</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:O33" si="0">F23*M23</f>
+        <v>5.9926457551707673</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="23">
         <v>43435</v>
       </c>
@@ -1181,7 +1208,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="18">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H24" s="26">
         <v>0.15277777777777701</v>
@@ -1190,13 +1217,21 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24:L33" si="0">F24/(PI()*(I3^2))</f>
+        <f t="shared" ref="K24:K28" si="1">F24/(PI()*(I3^2))</f>
         <v>2.9406305098023835</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="46"/>
-      <c r="C25" s="48"/>
+      <c r="M24">
+        <f>E2/(PI()*(I3^2))</f>
+        <v>0.10871421884723963</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>3.5875692219589075</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B25" s="47"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="23">
         <v>43556</v>
       </c>
@@ -1216,13 +1251,21 @@
         <v>0.57894736842105199</v>
       </c>
       <c r="K25">
+        <f t="shared" si="1"/>
+        <v>6.0622351272932828</v>
+      </c>
+      <c r="M25">
+        <f>E2/(PI()*(I4^2))</f>
+        <v>0.1297531027245229</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="0"/>
-        <v>6.0622351272932828</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="46"/>
-      <c r="C26" s="46" t="s">
+        <v>7.3959268552978052</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="23">
@@ -1244,13 +1287,21 @@
         <v>0.292682926829268</v>
       </c>
       <c r="K26">
+        <f t="shared" si="1"/>
+        <v>6.7546738437634808</v>
+      </c>
+      <c r="M26">
+        <f>E5/(PI()*(I5^2))</f>
+        <v>0.12520858832342061</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="0"/>
-        <v>6.7546738437634808</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
+        <v>5.1335521212602444</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="23">
         <v>43435</v>
       </c>
@@ -1270,13 +1321,21 @@
         <v>0.71428571428571397</v>
       </c>
       <c r="K27">
+        <f t="shared" si="1"/>
+        <v>3.9487875767129039</v>
+      </c>
+      <c r="M27">
+        <f>E5/(PI()*(I6^2))</f>
+        <v>7.1454251388138268E-2</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="0"/>
-        <v>3.9487875767129039</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
+        <v>3.0010785583018071</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="25">
         <v>43617</v>
       </c>
@@ -1296,12 +1355,20 @@
         <v>0.90666666666666595</v>
       </c>
       <c r="K28">
+        <f t="shared" si="1"/>
+        <v>13.70135529372377</v>
+      </c>
+      <c r="M28">
+        <f>E5/(PI()*(I7^2))</f>
+        <v>0.13884040030973421</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="0"/>
-        <v>13.70135529372377</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="45" t="s">
+        <v>10.413030023230066</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B29" s="46" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -1329,9 +1396,17 @@
         <f>F29/(PI()*(25.2^2))</f>
         <v>3.5087068582869345E-3</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="47"/>
+      <c r="M29">
+        <f>5.24/(PI()*(25.2^2))</f>
+        <v>2.6265177053462199E-3</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>1.8385623937423538E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="48"/>
       <c r="C30" s="20" t="s">
         <v>8</v>
       </c>
@@ -1357,9 +1432,17 @@
         <f>F30/(PI()*(16.8^2))</f>
         <v>4.5111945320832018E-3</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="45" t="s">
+      <c r="M30">
+        <f>8.25/(PI()*(16.8^2))</f>
+        <v>9.3043387224216022E-3</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>3.7217354889686409E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B31" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1384,12 +1467,20 @@
         <v>0</v>
       </c>
       <c r="K31">
+        <f>F31/(PI()*(I10^2))</f>
+        <v>2.0401210458823309E-4</v>
+      </c>
+      <c r="M31">
+        <f>E10/(PI()*(I10^2))</f>
+        <v>4.3454578277293642E-4</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="0"/>
-        <v>2.0401210458823309E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="46"/>
+        <v>4.3454578277293642E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B32" s="47"/>
       <c r="C32" s="21" t="s">
         <v>11</v>
       </c>
@@ -1415,9 +1506,17 @@
         <f>F32/(PI()*(21.2^2))</f>
         <v>1.4872969940057859E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="47"/>
+      <c r="M32">
+        <f>2.89/(PI()*(21.1^2))</f>
+        <v>2.066250917704353E-3</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>4.3391269271791412E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="48"/>
       <c r="C33" s="20" t="s">
         <v>12</v>
       </c>
@@ -1442,6 +1541,14 @@
       <c r="K33">
         <f>F33/(PI()*(11.5^2))</f>
         <v>0.14681968285225885</v>
+      </c>
+      <c r="M33">
+        <f>1.68/(PI()*(11.5^2))</f>
+        <v>4.0435584785540142E-3</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>0.24665706719179487</v>
       </c>
     </row>
   </sheetData>
@@ -1461,8 +1568,8 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B33"/>
   </mergeCells>
-  <conditionalFormatting sqref="K23:K33">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="K23:L33">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1474,6 +1581,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F33">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G33">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:L33">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23:M33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1485,7 +1628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G33">
+  <conditionalFormatting sqref="O23:O33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1497,7 +1640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K33">
+  <conditionalFormatting sqref="I23:I33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1533,38 +1676,38 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="32" t="s">
         <v>7</v>
       </c>
@@ -1623,16 +1766,16 @@
       <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="62">
         <v>1.22</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62">
         <v>0.76</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="35" t="s">
         <v>18</v>
       </c>
@@ -1653,16 +1796,16 @@
       <c r="B6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="60">
         <v>19.5</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60">
         <v>17.7</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="35">
         <v>17.399999999999999</v>
       </c>
